--- a/1/result.xlsx
+++ b/1/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="12495"/>
+    <workbookView windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,6 +72,22 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,7 +107,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -106,8 +130,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,6 +176,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -128,82 +204,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -220,186 +220,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -411,87 +411,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -513,15 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -537,17 +447,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,21 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -593,11 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,187 +525,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1110,19 +1008,19 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="12.625"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1137,566 +1035,566 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>20</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0.11279</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>0.095881</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.102596</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.057695</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>0.063118</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.066218</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <f>C3/C4</f>
         <v>1.9549354363463</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <f>D3/D4</f>
         <v>1.51907538261669</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <f>E3/E4</f>
         <v>1.54936724153553</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0.074888</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.075238</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.038514</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <f>C3/C5</f>
         <v>1.50611579959406</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <f>D3/D5</f>
         <v>1.27436933464473</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <f>E3/E5</f>
         <v>2.66386249156151</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4">
         <v>8</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.034037</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.05149</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.025195</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <f>C3/C6</f>
         <v>3.31374680494756</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <f>D3/D6</f>
         <v>1.86212856865411</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <f>E3/E6</f>
         <v>4.07207779321294</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4">
         <v>160</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>0.030185</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.039834</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.036206</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <f>C3/C7</f>
         <v>3.73662415106841</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <f>D3/D7</f>
         <v>2.40701410855048</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <f>E3/E7</f>
         <v>2.83367397668895</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>24</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>1.58402</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>1.68919</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>1.73605</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>1.04376</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>0.864915</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>0.994125</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <f>C8/C9</f>
         <v>1.51760941212539</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <f>D8/D9</f>
         <v>1.95301272379367</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <f>E8/E9</f>
         <v>1.74630956871621</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>0.523854</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>0.53625</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>0.539359</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <f>C8/C10</f>
         <v>3.0237814352854</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <f>D8/D10</f>
         <v>3.15000466200466</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <f>E8/E10</f>
         <v>3.21872815694185</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>0.344667</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>0.280215</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>0.807078</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <f>C8/C11</f>
         <v>4.5957982632512</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <f>D8/D11</f>
         <v>6.02819263779598</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <f>E8/E11</f>
         <v>2.15103125100672</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4">
         <v>160</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>0.237941</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>0.072868</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.186355</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <f>C8/C12</f>
         <v>6.65719653191337</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <f>D8/D12</f>
         <v>23.1815062853379</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <f>E8/E12</f>
         <v>9.31582195272464</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>28</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>30.3435</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>33.2631</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>26.021</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>1</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>16.6561</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>17.1482</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>16.4059</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <f>C13/C14</f>
         <v>1.82176499900937</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <f>D13/D14</f>
         <v>1.93974294678159</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <f>E13/E14</f>
         <v>1.58607574104438</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4">
         <v>4</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>19.4567</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>19.4131</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>9.34847</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <f>C13/C15</f>
         <v>1.55953990142213</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <f>D13/D15</f>
         <v>1.71343577275139</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <f>E13/E15</f>
         <v>2.78345012606341</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4">
         <v>8</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>6.05818</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>6.60823</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>11.2079</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <f>C13/C16</f>
         <v>5.00868247559498</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <f>D13/D16</f>
         <v>5.03358690602476</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <f>E13/E16</f>
         <v>2.32166596775489</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4">
         <v>160</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>0.969653</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>1.0963</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>0.977054</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <f>C13/C17</f>
         <v>31.293153323921</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <f>D13/D17</f>
         <v>30.3412387120314</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <f>E13/E17</f>
         <v>26.6321001705126</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>115.699</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>108.343</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>106.301</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>61.6626</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>61.8559</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>64.6765</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <f>C18/C19</f>
         <v>1.87632373594367</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <f>D18/D19</f>
         <v>1.75153865678133</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <f>E18/E19</f>
         <v>1.64357997108687</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4">
         <v>4</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>37.2586</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>70.1208</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>36.9657</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <f>C18/C20</f>
         <v>3.10529649530578</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="4">
         <f>D18/D20</f>
         <v>1.54509075766392</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="4">
         <f>E18/E20</f>
         <v>2.87566581993578</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4">
         <v>8</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>45.8545</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>17.7666</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>19.2849</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <f>C18/C21</f>
         <v>2.52317656936615</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="4">
         <f>D18/D21</f>
         <v>6.09812794794727</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="4">
         <f>E18/E21</f>
         <v>5.51213643835332</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4">
         <v>160</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>3.62721</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>3.59019</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>5.47457</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <f>C18/C22</f>
         <v>31.8975190297777</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <f>D18/D22</f>
         <v>30.177511496606</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="4">
         <f>E18/E22</f>
         <v>19.4172327689663</v>
       </c>
